--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H2">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I2">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J2">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.108824666666666</v>
+        <v>11.608856</v>
       </c>
       <c r="N2">
-        <v>15.326474</v>
+        <v>34.826568</v>
       </c>
       <c r="O2">
-        <v>0.5049726372337502</v>
+        <v>0.6986105367350092</v>
       </c>
       <c r="P2">
-        <v>0.5049726372337501</v>
+        <v>0.6986105367350093</v>
       </c>
       <c r="Q2">
-        <v>4.754084911228889</v>
+        <v>19.09339116307467</v>
       </c>
       <c r="R2">
-        <v>42.78676420106</v>
+        <v>171.840520467672</v>
       </c>
       <c r="S2">
-        <v>0.008931840559823155</v>
+        <v>0.02154766785097655</v>
       </c>
       <c r="T2">
-        <v>0.008931840559823155</v>
+        <v>0.02154766785097655</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H3">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I3">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J3">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>10.211533</v>
       </c>
       <c r="O3">
-        <v>0.3364469054793339</v>
+        <v>0.204840297499807</v>
       </c>
       <c r="P3">
-        <v>0.3364469054793339</v>
+        <v>0.204840297499807</v>
       </c>
       <c r="Q3">
-        <v>3.167492728974444</v>
+        <v>5.598392409600779</v>
       </c>
       <c r="R3">
-        <v>28.50743456077</v>
+        <v>50.385531686407</v>
       </c>
       <c r="S3">
-        <v>0.005950995945145154</v>
+        <v>0.006318013343528025</v>
       </c>
       <c r="T3">
-        <v>0.005950995945145154</v>
+        <v>0.006318013343528026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H4">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I4">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J4">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.813091</v>
       </c>
       <c r="O4">
-        <v>0.158580457286916</v>
+        <v>0.0965491657651837</v>
       </c>
       <c r="P4">
-        <v>0.1585804572869159</v>
+        <v>0.09654916576518371</v>
       </c>
       <c r="Q4">
-        <v>1.492962001532222</v>
+        <v>2.63873917080989</v>
       </c>
       <c r="R4">
-        <v>13.43665801379</v>
+        <v>23.748652537289</v>
       </c>
       <c r="S4">
-        <v>0.002804934873599746</v>
+        <v>0.002977924388200542</v>
       </c>
       <c r="T4">
-        <v>0.002804934873599746</v>
+        <v>0.002977924388200542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>132.462531</v>
       </c>
       <c r="I5">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J5">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>5.108824666666666</v>
+        <v>11.608856</v>
       </c>
       <c r="N5">
-        <v>15.326474</v>
+        <v>34.826568</v>
       </c>
       <c r="O5">
-        <v>0.5049726372337502</v>
+        <v>0.6986105367350092</v>
       </c>
       <c r="P5">
-        <v>0.5049726372337501</v>
+        <v>0.6986105367350093</v>
       </c>
       <c r="Q5">
-        <v>225.575948593966</v>
+        <v>512.5794825915121</v>
       </c>
       <c r="R5">
-        <v>2030.183537345694</v>
+        <v>4613.215343323609</v>
       </c>
       <c r="S5">
-        <v>0.4238057259375619</v>
+        <v>0.5784667764764279</v>
       </c>
       <c r="T5">
-        <v>0.4238057259375619</v>
+        <v>0.578466776476428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>132.462531</v>
       </c>
       <c r="I6">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J6">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>10.211533</v>
       </c>
       <c r="O6">
-        <v>0.3364469054793339</v>
+        <v>0.204840297499807</v>
       </c>
       <c r="P6">
-        <v>0.3364469054793339</v>
+        <v>0.204840297499807</v>
       </c>
       <c r="Q6">
         <v>150.293945174447</v>
@@ -818,10 +818,10 @@
         <v>1352.645506570023</v>
       </c>
       <c r="S6">
-        <v>0.282368022547154</v>
+        <v>0.1696128248236423</v>
       </c>
       <c r="T6">
-        <v>0.282368022547154</v>
+        <v>0.1696128248236423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>132.462531</v>
       </c>
       <c r="I7">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J7">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.813091</v>
       </c>
       <c r="O7">
-        <v>0.158580457286916</v>
+        <v>0.0965491657651837</v>
       </c>
       <c r="P7">
-        <v>0.1585804572869159</v>
+        <v>0.09654916576518371</v>
       </c>
       <c r="Q7">
         <v>70.83935731036901</v>
@@ -880,10 +880,10 @@
         <v>637.5542157933211</v>
       </c>
       <c r="S7">
-        <v>0.1330909852623993</v>
+        <v>0.07994509351761871</v>
       </c>
       <c r="T7">
-        <v>0.1330909852623993</v>
+        <v>0.07994509351761872</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>22.577421</v>
       </c>
       <c r="I8">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J8">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>5.108824666666666</v>
+        <v>11.608856</v>
       </c>
       <c r="N8">
-        <v>15.326474</v>
+        <v>34.826568</v>
       </c>
       <c r="O8">
-        <v>0.5049726372337502</v>
+        <v>0.6986105367350092</v>
       </c>
       <c r="P8">
-        <v>0.5049726372337501</v>
+        <v>0.6986105367350093</v>
       </c>
       <c r="Q8">
-        <v>38.44802843817266</v>
+        <v>87.36600974679202</v>
       </c>
       <c r="R8">
-        <v>346.032255943554</v>
+        <v>786.2940877211281</v>
       </c>
       <c r="S8">
-        <v>0.07223507073636511</v>
+        <v>0.09859609240760475</v>
       </c>
       <c r="T8">
-        <v>0.07223507073636509</v>
+        <v>0.09859609240760477</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>22.577421</v>
       </c>
       <c r="I9">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J9">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>10.211533</v>
       </c>
       <c r="O9">
-        <v>0.3364469054793339</v>
+        <v>0.204840297499807</v>
       </c>
       <c r="P9">
-        <v>0.3364469054793339</v>
+        <v>0.204840297499807</v>
       </c>
       <c r="Q9">
         <v>25.61667551071033</v>
@@ -1004,10 +1004,10 @@
         <v>230.550079596393</v>
       </c>
       <c r="S9">
-        <v>0.04812788698703476</v>
+        <v>0.02890945933263666</v>
       </c>
       <c r="T9">
-        <v>0.04812788698703475</v>
+        <v>0.02890945933263667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>22.577421</v>
       </c>
       <c r="I10">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J10">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.813091</v>
       </c>
       <c r="O10">
-        <v>0.158580457286916</v>
+        <v>0.0965491657651837</v>
       </c>
       <c r="P10">
-        <v>0.1585804572869159</v>
+        <v>0.09654916576518371</v>
       </c>
       <c r="Q10">
         <v>12.07413131314567</v>
@@ -1066,10 +1066,10 @@
         <v>108.667181818311</v>
       </c>
       <c r="S10">
-        <v>0.02268453715091692</v>
+        <v>0.01362614785936446</v>
       </c>
       <c r="T10">
-        <v>0.02268453715091692</v>
+        <v>0.01362614785936446</v>
       </c>
     </row>
   </sheetData>
